--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_BaoCao_KHNam_DonVi_PheDuyet_CTMM.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_BaoCao_KHNam_DonVi_PheDuyet_CTMM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\dungnv5\project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -622,6 +622,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,53 +679,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -968,7 +968,7 @@
   </sheetPr>
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -977,57 +977,57 @@
     <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1052,92 +1052,92 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="47" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="43" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="38" t="s">
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="38" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="33" t="s">
         <v>59</v>
       </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="24" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -1248,101 +1248,107 @@
       <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="14"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35" t="s">
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="31"/>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36" t="s">
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="F19" s="33" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="F19" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33" t="s">
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="L6:L8"/>
     <mergeCell ref="A6:A8"/>
@@ -1359,21 +1365,15 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.511811023622047" bottom="0.511811023622047" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup scale="98" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;RTrang &amp;P</oddHeader>
   </headerFooter>
